--- a/lib/PHPExcel/templates/Report Str_USA.xlsx
+++ b/lib/PHPExcel/templates/Report Str_USA.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -146,9 +146,6 @@
     <t xml:space="preserve">ASTM E606-12, </t>
   </si>
   <si>
-    <t>Specimen id. /</t>
-  </si>
-  <si>
     <t>Test number</t>
   </si>
   <si>
@@ -388,6 +385,9 @@
   </si>
   <si>
     <t>Specimen id</t>
+  </si>
+  <si>
+    <t>Job Number :</t>
   </si>
 </sst>
 </file>
@@ -865,7 +865,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="113">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
@@ -1071,9 +1071,6 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="16" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
@@ -1164,6 +1161,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1596,7 +1599,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1610,7 +1613,7 @@
     </row>
     <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -1638,12 +1641,12 @@
       <c r="E4" s="6"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="109" t="s">
-        <v>105</v>
+      <c r="A5" s="108" t="s">
+        <v>104</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="H5" s="109" t="s">
-        <v>103</v>
+      <c r="H5" s="108" t="s">
+        <v>102</v>
       </c>
       <c r="I5" s="9" t="s">
         <v>2</v>
@@ -1651,27 +1654,27 @@
       <c r="J5" s="8"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="111"/>
+      <c r="A6" s="110"/>
       <c r="B6" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
-      <c r="H6" s="106"/>
+      <c r="C6" s="112"/>
+      <c r="D6" s="112"/>
+      <c r="E6" s="112"/>
+      <c r="F6" s="112"/>
+      <c r="H6" s="105"/>
       <c r="J6" s="8"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="111"/>
+      <c r="A7" s="110"/>
       <c r="B7" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="79"/>
-      <c r="D7" s="79"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="79"/>
-      <c r="H7" s="109" t="s">
+      <c r="C7" s="112"/>
+      <c r="D7" s="112"/>
+      <c r="E7" s="112"/>
+      <c r="F7" s="112"/>
+      <c r="H7" s="108" t="s">
         <v>3</v>
       </c>
       <c r="I7" s="7" t="s">
@@ -1680,28 +1683,28 @@
       <c r="J7" s="10"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="111"/>
+      <c r="A8" s="110"/>
       <c r="B8" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="79"/>
-      <c r="D8" s="79"/>
-      <c r="E8" s="79"/>
-      <c r="F8" s="79"/>
-      <c r="H8" s="106"/>
+      <c r="C8" s="112"/>
+      <c r="D8" s="112"/>
+      <c r="E8" s="112"/>
+      <c r="F8" s="112"/>
+      <c r="H8" s="105"/>
       <c r="J8" s="8"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="111"/>
+      <c r="A9" s="110"/>
       <c r="B9" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="79"/>
-      <c r="D9" s="79"/>
-      <c r="E9" s="79"/>
-      <c r="F9" s="79"/>
-      <c r="H9" s="110" t="s">
-        <v>104</v>
+      <c r="C9" s="112"/>
+      <c r="D9" s="112"/>
+      <c r="E9" s="112"/>
+      <c r="F9" s="112"/>
+      <c r="H9" s="109" t="s">
+        <v>103</v>
       </c>
       <c r="I9" s="7" t="s">
         <v>2</v>
@@ -1709,8 +1712,8 @@
       <c r="J9" s="11"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="110" t="s">
-        <v>71</v>
+      <c r="A10" s="109" t="s">
+        <v>70</v>
       </c>
       <c r="B10" s="29"/>
       <c r="C10" s="8" t="s">
@@ -1718,31 +1721,31 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="111"/>
+      <c r="A11" s="110"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="109" t="s">
-        <v>72</v>
+      <c r="A12" s="108" t="s">
+        <v>71</v>
       </c>
       <c r="B12" s="27" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B13" s="27" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C13" s="27"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B14" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14" s="27"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B16" s="107" t="s">
         <v>73</v>
-      </c>
-      <c r="C14" s="27"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B16" s="108" t="s">
-        <v>74</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>2</v>
@@ -1761,10 +1764,10 @@
       </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B19" s="106" t="s">
-        <v>75</v>
-      </c>
-      <c r="C19" s="107"/>
+      <c r="B19" s="105" t="s">
+        <v>74</v>
+      </c>
+      <c r="C19" s="106"/>
       <c r="D19" s="8" t="s">
         <v>2</v>
       </c>
@@ -1777,18 +1780,18 @@
       </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="E20" s="106" t="s">
+      <c r="E20" s="105" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="E21" s="105" t="s">
         <v>76</v>
-      </c>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="E21" s="106" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B23" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>2</v>
@@ -1806,10 +1809,10 @@
       <c r="D25" s="8"/>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B26" s="106" t="s">
-        <v>78</v>
-      </c>
-      <c r="C26" s="107"/>
+      <c r="B26" s="105" t="s">
+        <v>77</v>
+      </c>
+      <c r="C26" s="106"/>
       <c r="D26" s="8" t="s">
         <v>2</v>
       </c>
@@ -1822,7 +1825,7 @@
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B28" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.2">
@@ -1836,7 +1839,7 @@
         <v>2</v>
       </c>
       <c r="E30" s="25" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.2">
@@ -1844,7 +1847,7 @@
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B32" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>2</v>
@@ -1855,13 +1858,13 @@
     </row>
     <row r="34" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B34" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D34" s="8" t="s">
         <v>2</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G34" s="3" t="s">
         <v>1</v>
@@ -1880,7 +1883,7 @@
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B36" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D36" s="8" t="s">
         <v>2</v>
@@ -1889,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.2">
@@ -1898,24 +1901,24 @@
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B38" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D38" s="8" t="s">
         <v>2</v>
       </c>
       <c r="E38" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="G38" s="3" t="s">
         <v>86</v>
-      </c>
-      <c r="G38" s="3" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.2">
       <c r="E39" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="G39" s="3" t="s">
         <v>88</v>
-      </c>
-      <c r="G39" s="3" t="s">
-        <v>89</v>
       </c>
       <c r="H39" s="3" t="s">
         <v>1</v>
@@ -1928,13 +1931,13 @@
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B41" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D41" s="8" t="s">
         <v>2</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.2">
@@ -1945,7 +1948,7 @@
         <v>2</v>
       </c>
       <c r="E43" s="26" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.2">
@@ -1955,13 +1958,13 @@
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B45" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.2">
@@ -1988,21 +1991,21 @@
       </c>
       <c r="H51" s="27"/>
       <c r="I51" s="28" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J51" s="27"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="I52" s="18" t="s">
         <v>96</v>
-      </c>
-      <c r="I52" s="18" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" s="19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B53" s="19"/>
       <c r="C53" s="19"/>
@@ -2016,7 +2019,7 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B54" s="19"/>
       <c r="C54" s="19"/>
@@ -2050,9 +2053,9 @@
   <sheetPr codeName="Feuil2"/>
   <dimension ref="A1:CY74"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G10" sqref="G10"/>
+      <selection pane="topRight" activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.1" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2065,24 +2068,27 @@
     <col min="88" max="16384" width="11.42578125" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="64" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" s="64" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="65"/>
       <c r="D1" s="66"/>
-    </row>
-    <row r="4" spans="1:4" s="32" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K1" s="111" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="32" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="33"/>
     </row>
-    <row r="5" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="34" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B5" s="35"/>
       <c r="C5" s="21"/>
       <c r="D5" s="46"/>
     </row>
-    <row r="6" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="34" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B6" s="35"/>
       <c r="C6" s="21" t="s">
@@ -2090,51 +2096,51 @@
       </c>
       <c r="D6" s="46"/>
     </row>
-    <row r="7" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B7" s="35"/>
       <c r="C7" s="36"/>
       <c r="D7" s="47"/>
     </row>
-    <row r="8" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B8" s="35"/>
       <c r="C8" s="37"/>
       <c r="D8" s="47"/>
     </row>
-    <row r="9" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B9" s="35"/>
       <c r="C9" s="37"/>
       <c r="D9" s="47"/>
     </row>
-    <row r="10" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="34" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B10" s="35"/>
       <c r="C10" s="37"/>
       <c r="D10" s="48"/>
     </row>
-    <row r="11" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="42" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B11" s="35"/>
       <c r="C11" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="47"/>
+    </row>
+    <row r="12" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="34" t="s">
         <v>38</v>
-      </c>
-      <c r="D11" s="47"/>
-    </row>
-    <row r="12" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="34" t="s">
-        <v>39</v>
       </c>
       <c r="B12" s="35"/>
       <c r="C12" s="38" t="s">
@@ -2142,9 +2148,9 @@
       </c>
       <c r="D12" s="47"/>
     </row>
-    <row r="13" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B13" s="35"/>
       <c r="C13" s="38" t="s">
@@ -2152,29 +2158,29 @@
       </c>
       <c r="D13" s="47"/>
     </row>
-    <row r="14" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="79" t="s">
         <v>41</v>
-      </c>
-      <c r="B14" s="80" t="s">
-        <v>42</v>
       </c>
       <c r="C14" s="38"/>
       <c r="D14" s="71"/>
     </row>
-    <row r="15" spans="1:4" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="60" t="s">
-        <v>43</v>
-      </c>
-      <c r="B15" s="81" t="s">
         <v>42</v>
+      </c>
+      <c r="B15" s="80" t="s">
+        <v>41</v>
       </c>
       <c r="C15" s="41"/>
       <c r="D15" s="72"/>
     </row>
-    <row r="16" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="61" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B16" s="56"/>
       <c r="C16" s="57"/>
@@ -2182,7 +2188,7 @@
     </row>
     <row r="17" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B17" s="35"/>
       <c r="C17" s="38" t="s">
@@ -2192,7 +2198,7 @@
     </row>
     <row r="18" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B18" s="35"/>
       <c r="C18" s="38" t="s">
@@ -2212,7 +2218,7 @@
     </row>
     <row r="20" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="42" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B20" s="35"/>
       <c r="C20" s="39" t="s">
@@ -2250,7 +2256,7 @@
     </row>
     <row r="24" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B24" s="35"/>
       <c r="C24" s="38" t="s">
@@ -2260,7 +2266,7 @@
     </row>
     <row r="25" spans="1:4" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="62" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B25" s="40"/>
       <c r="C25" s="41" t="s">
@@ -2269,237 +2275,237 @@
       <c r="D25" s="74"/>
     </row>
     <row r="26" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="82" t="s">
-        <v>69</v>
-      </c>
-      <c r="B26" s="83" t="s">
+      <c r="A26" s="81" t="s">
+        <v>68</v>
+      </c>
+      <c r="B26" s="82" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" s="83" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="70"/>
+    </row>
+    <row r="27" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="84" t="s">
+        <v>19</v>
+      </c>
+      <c r="B27" s="85" t="s">
         <v>49</v>
       </c>
-      <c r="C26" s="84" t="s">
+      <c r="C27" s="86" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="50"/>
+    </row>
+    <row r="28" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="84" t="s">
+        <v>19</v>
+      </c>
+      <c r="B28" s="85" t="s">
+        <v>50</v>
+      </c>
+      <c r="C28" s="86" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="50"/>
+    </row>
+    <row r="29" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="84" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" s="85" t="s">
+        <v>49</v>
+      </c>
+      <c r="C29" s="86" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" s="51"/>
+    </row>
+    <row r="30" spans="1:4" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="87" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" s="88" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30" s="89" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" s="59"/>
+    </row>
+    <row r="31" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="90" t="s">
+        <v>52</v>
+      </c>
+      <c r="B31" s="91"/>
+      <c r="C31" s="83"/>
+      <c r="D31" s="58"/>
+    </row>
+    <row r="32" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="84" t="s">
+        <v>11</v>
+      </c>
+      <c r="B32" s="92" t="s">
+        <v>53</v>
+      </c>
+      <c r="C32" s="86" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" s="51"/>
+    </row>
+    <row r="33" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="84" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33" s="93" t="s">
+        <v>54</v>
+      </c>
+      <c r="C33" s="86" t="s">
+        <v>10</v>
+      </c>
+      <c r="D33" s="51"/>
+    </row>
+    <row r="34" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="84" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34" s="93" t="s">
+        <v>55</v>
+      </c>
+      <c r="C34" s="86" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34" s="51"/>
+    </row>
+    <row r="35" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="94" t="s">
+        <v>13</v>
+      </c>
+      <c r="B35" s="92" t="s">
+        <v>53</v>
+      </c>
+      <c r="C35" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="D26" s="70"/>
-    </row>
-    <row r="27" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="85" t="s">
-        <v>19</v>
-      </c>
-      <c r="B27" s="86" t="s">
-        <v>50</v>
-      </c>
-      <c r="C27" s="87" t="s">
+      <c r="D35" s="51"/>
+    </row>
+    <row r="36" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="84" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36" s="93" t="s">
+        <v>56</v>
+      </c>
+      <c r="C36" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="D27" s="50"/>
-    </row>
-    <row r="28" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="85" t="s">
-        <v>19</v>
-      </c>
-      <c r="B28" s="86" t="s">
-        <v>51</v>
-      </c>
-      <c r="C28" s="87" t="s">
+      <c r="D36" s="52"/>
+    </row>
+    <row r="37" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="84" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37" s="93" t="s">
+        <v>57</v>
+      </c>
+      <c r="C37" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="D28" s="50"/>
-    </row>
-    <row r="29" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="85" t="s">
+      <c r="D37" s="53"/>
+    </row>
+    <row r="38" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="84" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38" s="93" t="s">
+        <v>58</v>
+      </c>
+      <c r="C38" s="86" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" s="53"/>
+    </row>
+    <row r="39" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="84" t="s">
+        <v>7</v>
+      </c>
+      <c r="B39" s="93" t="s">
+        <v>59</v>
+      </c>
+      <c r="C39" s="86" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" s="53"/>
+    </row>
+    <row r="40" spans="1:4" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="B29" s="86" t="s">
-        <v>50</v>
-      </c>
-      <c r="C29" s="87" t="s">
+      <c r="B40" s="95" t="s">
+        <v>60</v>
+      </c>
+      <c r="C40" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="D29" s="51"/>
-    </row>
-    <row r="30" spans="1:4" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="88" t="s">
-        <v>9</v>
-      </c>
-      <c r="B30" s="89" t="s">
-        <v>52</v>
-      </c>
-      <c r="C30" s="90" t="s">
-        <v>10</v>
-      </c>
-      <c r="D30" s="59"/>
-    </row>
-    <row r="31" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="91" t="s">
-        <v>53</v>
-      </c>
-      <c r="B31" s="92"/>
-      <c r="C31" s="84"/>
-      <c r="D31" s="58"/>
-    </row>
-    <row r="32" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="85" t="s">
-        <v>11</v>
-      </c>
-      <c r="B32" s="93" t="s">
-        <v>54</v>
-      </c>
-      <c r="C32" s="87" t="s">
-        <v>10</v>
-      </c>
-      <c r="D32" s="51"/>
-    </row>
-    <row r="33" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="85" t="s">
-        <v>9</v>
-      </c>
-      <c r="B33" s="94" t="s">
-        <v>55</v>
-      </c>
-      <c r="C33" s="87" t="s">
-        <v>10</v>
-      </c>
-      <c r="D33" s="51"/>
-    </row>
-    <row r="34" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="85" t="s">
-        <v>9</v>
-      </c>
-      <c r="B34" s="94" t="s">
-        <v>56</v>
-      </c>
-      <c r="C34" s="87" t="s">
-        <v>10</v>
-      </c>
-      <c r="D34" s="51"/>
-    </row>
-    <row r="35" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="95" t="s">
-        <v>13</v>
-      </c>
-      <c r="B35" s="93" t="s">
-        <v>54</v>
-      </c>
-      <c r="C35" s="87" t="s">
-        <v>6</v>
-      </c>
-      <c r="D35" s="51"/>
-    </row>
-    <row r="36" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="85" t="s">
-        <v>7</v>
-      </c>
-      <c r="B36" s="94" t="s">
-        <v>57</v>
-      </c>
-      <c r="C36" s="87" t="s">
-        <v>8</v>
-      </c>
-      <c r="D36" s="52"/>
-    </row>
-    <row r="37" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="85" t="s">
-        <v>7</v>
-      </c>
-      <c r="B37" s="94" t="s">
-        <v>58</v>
-      </c>
-      <c r="C37" s="87" t="s">
-        <v>8</v>
-      </c>
-      <c r="D37" s="53"/>
-    </row>
-    <row r="38" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="85" t="s">
-        <v>7</v>
-      </c>
-      <c r="B38" s="94" t="s">
-        <v>59</v>
-      </c>
-      <c r="C38" s="87" t="s">
-        <v>8</v>
-      </c>
-      <c r="D38" s="53"/>
-    </row>
-    <row r="39" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="85" t="s">
-        <v>7</v>
-      </c>
-      <c r="B39" s="94" t="s">
-        <v>60</v>
-      </c>
-      <c r="C39" s="87" t="s">
-        <v>8</v>
-      </c>
-      <c r="D39" s="53"/>
-    </row>
-    <row r="40" spans="1:4" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="88" t="s">
-        <v>9</v>
-      </c>
-      <c r="B40" s="96" t="s">
+      <c r="D40" s="68"/>
+    </row>
+    <row r="41" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="96" t="s">
         <v>61</v>
       </c>
-      <c r="C40" s="90" t="s">
-        <v>10</v>
-      </c>
-      <c r="D40" s="68"/>
-    </row>
-    <row r="41" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="97" t="s">
+      <c r="B41" s="97"/>
+      <c r="C41" s="98"/>
+      <c r="D41" s="58"/>
+    </row>
+    <row r="42" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="99" t="s">
         <v>62</v>
       </c>
-      <c r="B41" s="98"/>
-      <c r="C41" s="99"/>
-      <c r="D41" s="58"/>
-    </row>
-    <row r="42" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="100" t="s">
+      <c r="B42" s="100"/>
+      <c r="C42" s="101"/>
+      <c r="D42" s="47"/>
+    </row>
+    <row r="43" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="99" t="s">
         <v>63</v>
       </c>
-      <c r="B42" s="101"/>
-      <c r="C42" s="102"/>
-      <c r="D42" s="47"/>
-    </row>
-    <row r="43" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="100" t="s">
+      <c r="B43" s="100"/>
+      <c r="C43" s="101"/>
+      <c r="D43" s="47"/>
+    </row>
+    <row r="44" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="99" t="s">
         <v>64</v>
       </c>
-      <c r="B43" s="101"/>
-      <c r="C43" s="102"/>
-      <c r="D43" s="47"/>
-    </row>
-    <row r="44" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="100" t="s">
+      <c r="B44" s="100"/>
+      <c r="C44" s="101"/>
+      <c r="D44" s="47"/>
+    </row>
+    <row r="45" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="102" t="s">
         <v>65</v>
       </c>
-      <c r="B44" s="101"/>
-      <c r="C44" s="102"/>
-      <c r="D44" s="47"/>
-    </row>
-    <row r="45" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="103" t="s">
+      <c r="B45" s="100"/>
+      <c r="C45" s="103" t="s">
+        <v>15</v>
+      </c>
+      <c r="D45" s="47"/>
+    </row>
+    <row r="46" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="99" t="s">
         <v>66</v>
       </c>
-      <c r="B45" s="101"/>
-      <c r="C45" s="104" t="s">
-        <v>15</v>
-      </c>
-      <c r="D45" s="47"/>
-    </row>
-    <row r="46" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="100" t="s">
+      <c r="B46" s="100"/>
+      <c r="C46" s="101"/>
+      <c r="D46" s="49"/>
+    </row>
+    <row r="47" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="102" t="s">
         <v>67</v>
       </c>
-      <c r="B46" s="101"/>
-      <c r="C46" s="102"/>
-      <c r="D46" s="49"/>
-    </row>
-    <row r="47" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="103" t="s">
-        <v>68</v>
-      </c>
-      <c r="B47" s="101"/>
-      <c r="C47" s="104" t="s">
+      <c r="B47" s="100"/>
+      <c r="C47" s="103" t="s">
         <v>17</v>
       </c>
       <c r="D47" s="69"/>
@@ -2515,8 +2521,8 @@
       <c r="D49" s="44"/>
     </row>
     <row r="50" spans="1:103" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="105" t="s">
-        <v>70</v>
+      <c r="A50" s="104" t="s">
+        <v>69</v>
       </c>
       <c r="C50" s="43"/>
       <c r="D50" s="54"/>
@@ -2622,6 +2628,7 @@
     </row>
     <row r="51" spans="1:103" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C51" s="43"/>
+      <c r="D51" s="54"/>
     </row>
     <row r="52" spans="1:103" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="30" t="s">
